--- a/Riesgo de pobreza.xlsx
+++ b/Riesgo de pobreza.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moises Almanzar\Desktop\Proyecto Samsung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6672EAFC-40F2-48A5-8EA9-D22E1D3AEC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A25DCC-BF6A-4C80-9DE3-6A20D26CC74A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="11400" xr2:uid="{9A1EEE8E-8773-4FB1-BA74-9DFF3928E9EA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{9A1EEE8E-8773-4FB1-BA74-9DFF3928E9EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,72 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Fecha</t>
   </si>
   <si>
     <t>% Riesgo Pobreza</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
   </si>
 </sst>
 </file>
@@ -137,9 +77,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,7 +422,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -499,176 +442,176 @@
       <c r="A2" s="1">
         <v>2021</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
+      <c r="B2" s="2">
+        <v>0.23899999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="2">
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2019</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+      <c r="B4" s="2">
+        <v>0.21</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>2018</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
+      <c r="B5" s="2">
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>2017</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
+      <c r="B6" s="2">
+        <v>0.25600000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>2016</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
+      <c r="B7" s="2">
+        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>2015</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
+      <c r="B8" s="2">
+        <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>2014</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
+      <c r="B9" s="2">
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>2013</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
+      <c r="B10" s="2">
+        <v>0.41199999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>2012</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
+      <c r="B11" s="2">
+        <v>0.41</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>2011</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>12</v>
+      <c r="B12" s="2">
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2010</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>13</v>
+      <c r="B13" s="2">
+        <v>0.41599999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>2009</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
+      <c r="B14" s="2">
+        <v>0.42099999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>2008</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>15</v>
+      <c r="B15" s="2">
+        <v>0.442</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>2007</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>16</v>
+      <c r="B16" s="2">
+        <v>0.436</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>2006</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
+      <c r="B17" s="2">
+        <v>0.442</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>2005</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
+      <c r="B18" s="2">
+        <v>0.47799999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>2004</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
+      <c r="B19" s="2">
+        <v>0.497</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>2003</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
+      <c r="B20" s="2">
+        <v>0.41499999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>2002</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
+      <c r="B21" s="2">
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>2001</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
+      <c r="B22" s="2">
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>2000</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
+      <c r="B23" s="2">
+        <v>0.32100000000000001</v>
       </c>
     </row>
   </sheetData>
